--- a/biology/Zoologie/Coluber_lateralis/Coluber_lateralis.xlsx
+++ b/biology/Zoologie/Coluber_lateralis/Coluber_lateralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coluber lateralis est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coluber lateralis est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon est souvent repris sous Masticophis lateralis par plusieurs sources. Reptile Database le classe dans le genre Coluber.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Californie aux États-Unis et en Basse-Californie au Mexique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Californie aux États-Unis et en Basse-Californie au Mexique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coluber lateralis est une espèce ovipare[1]. Son dos est brun et présente deux fines rayures jaunes, une de chaque côté, s'étendant de la tête à la racine de la queue. Sa face ventrale est uniformément jaune paille à l'exception de son menton et de sa gorge qui sont tachetés de minuscules points noirs. Cette espèce se rencontre fréquemment à proximité des étangs ou sur les berges des rivières. Elle est assez timide et n'hésite pas à plonger à l'eau pour s'échapper lorsqu'on l'approche[2]. Le spécimen décrit par Riemer mesurait 120 cm dont 36 cm pour la queue[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coluber lateralis est une espèce ovipare. Son dos est brun et présente deux fines rayures jaunes, une de chaque côté, s'étendant de la tête à la racine de la queue. Sa face ventrale est uniformément jaune paille à l'exception de son menton et de sa gorge qui sont tachetés de minuscules points noirs. Cette espèce se rencontre fréquemment à proximité des étangs ou sur les berges des rivières. Elle est assez timide et n'hésite pas à plonger à l'eau pour s'échapper lorsqu'on l'approche. Le spécimen décrit par Riemer mesurait 120 cm dont 36 cm pour la queue.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (13 février 2014)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (13 février 2014) :
 Coluber lateralis euryxanthus (Riemer, 1954)
 Coluber lateralis lateralis (Hallowell, 1853)</t>
         </is>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hallowell, 1853 : On some new reptiles from California. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 236-238 (texte intégral).
 Riemer, 1954 : A new subspecies of the snake Masticophis lateralis from California. Copeia, vol. 1954, no 1, p. 45-48.</t>
